--- a/thesis_experiments/data_thesis/lstm_individuals_data.xlsx
+++ b/thesis_experiments/data_thesis/lstm_individuals_data.xlsx
@@ -468,16 +468,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7027027027027027</v>
+        <v>0.606060606060606</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4523809523809524</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5660377358490566</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +508,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E4" t="n">
         <v>0.3809523809523809</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4047619047619048</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D5" t="n">
-        <v>0.391304347826087</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4186046511627907</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -548,16 +548,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4047619047619048</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E6" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.358974358974359</v>
+        <v>0.5128205128205129</v>
       </c>
     </row>
     <row r="7">
@@ -571,13 +571,13 @@
         <v>0.5238095238095238</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -588,16 +588,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.4761904761904762</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.5714285714285714</v>
-      </c>
       <c r="F8" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.4878048780487805</v>
       </c>
     </row>
     <row r="9">
@@ -608,16 +608,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="D9" t="n">
-        <v>0.52</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="E9" t="n">
         <v>0.65</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5777777777777778</v>
+        <v>0.6046511627906976</v>
       </c>
     </row>
     <row r="10">
@@ -628,16 +628,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11">
@@ -651,13 +651,13 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6250000000000001</v>
+        <v>0.5909090909090909</v>
       </c>
     </row>
     <row r="12">
@@ -668,16 +668,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.45</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4571428571428572</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="13">
@@ -688,16 +688,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.3902439024390244</v>
       </c>
     </row>
     <row r="14">
@@ -708,16 +708,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5500000000000002</v>
+        <v>0.4736842105263158</v>
       </c>
     </row>
     <row r="15">
@@ -728,16 +728,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="D15" t="n">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4285714285714286</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="16">
@@ -748,16 +748,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5</v>
+        <v>0.6382978723404256</v>
       </c>
     </row>
     <row r="17">
@@ -788,16 +788,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.4888888888888889</v>
       </c>
     </row>
     <row r="19">
@@ -808,16 +808,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4523809523809524</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4888888888888889</v>
+        <v>0.5128205128205129</v>
       </c>
     </row>
   </sheetData>
